--- a/empirical-results/versions_spearman.xlsx
+++ b/empirical-results/versions_spearman.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alarcos\Documents\GitHub\CompilersEnergyConsumption\empirical-results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alarcos\Desktop\CompilersEnergyConsumption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEABF720-4638-4BA4-8C70-1FCE4C9337D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4021E253-4031-46A6-A48D-B96D16752005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28725" yWindow="615" windowWidth="23310" windowHeight="11325" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-585" windowWidth="38640" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sperman time vs consumption" sheetId="17" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
   <si>
     <t>generated by ELLIOT 5.0.1.® Green Team - Alarcos Research Group®</t>
   </si>
@@ -203,7 +203,56 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="50"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -214,6 +263,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{594797AB-BCAB-4C2A-A447-C1DECFDEB11A}" name="Tabla3" displayName="Tabla3" ref="A3:B20" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:B20" xr:uid="{594797AB-BCAB-4C2A-A447-C1DECFDEB11A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{21C9D2D1-2270-47C8-81E4-5E60F6EE8E7B}" name="TestCase" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9BAF1EFF-A317-4F94-9155-7790353E2585}" name="DUT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9AE58B13-7E9E-4B52-9B22-9098752DD07B}" name="Tabla2" displayName="Tabla2" ref="A3:B20" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A3:B20" xr:uid="{9AE58B13-7E9E-4B52-9B22-9098752DD07B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C52676B9-D380-4D53-BC2B-D19CA6443D67}" name="TestCase" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{41CDC892-A569-456B-A238-863BEC59E95C}" name="DUT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2C564AF-D3CB-4601-9AFD-C8BD2021B2C2}" name="Tabla1" displayName="Tabla1" ref="A3:B20" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A3:B20" xr:uid="{C2C564AF-D3CB-4601-9AFD-C8BD2021B2C2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0C68BCDE-2185-4104-A5A1-CE51CE275760}" name="TestCase" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{AA1F78D5-5BE4-45B6-BF8F-16261C7DBCD3}" name="DUT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1767,15 +1849,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1784,617 +1869,179 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4">
-        <v>-0.28033911601535172</v>
-      </c>
-      <c r="D4">
-        <v>0.68684263682783975</v>
-      </c>
-      <c r="E4">
-        <v>0.82980430013575979</v>
-      </c>
-      <c r="F4">
-        <v>0.83560812112158644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.36768237710516294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>-0.49279588926728091</v>
-      </c>
-      <c r="D5">
-        <v>0.49177308342251247</v>
-      </c>
-      <c r="E5">
-        <v>0.9577809273248401</v>
-      </c>
-      <c r="F5">
-        <v>0.79337457072279249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.16575335047034367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <v>-0.42848204427151743</v>
-      </c>
-      <c r="D6">
-        <v>0.79380093590619905</v>
-      </c>
-      <c r="E6">
-        <v>0.87384194752615862</v>
-      </c>
-      <c r="F6">
-        <v>0.71651374940848667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.12778836151389564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7">
-        <v>-0.3205167276346414</v>
-      </c>
-      <c r="D7">
-        <v>0.87684435296154539</v>
-      </c>
-      <c r="E7">
-        <v>0.92061372290738797</v>
-      </c>
-      <c r="F7">
-        <v>0.84648017519897645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.3813428104077955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <v>-1.0344202403585209E-3</v>
-      </c>
-      <c r="D8">
-        <v>0.41181971036233245</v>
-      </c>
-      <c r="E8">
-        <v>-0.39221912323881547</v>
-      </c>
-      <c r="F8">
-        <v>-0.36768237710516294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.14992794091154757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>0.12916108832193704</v>
-      </c>
-      <c r="D9">
-        <v>0.11431838819737716</v>
-      </c>
-      <c r="E9">
-        <v>-4.1364344521929275E-2</v>
-      </c>
-      <c r="F9">
-        <v>-0.16575335047034367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.18008664038667804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>1000</v>
-      </c>
-      <c r="C10">
-        <v>-0.24080858935095753</v>
-      </c>
-      <c r="D10">
-        <v>0.53763009563216424</v>
-      </c>
-      <c r="E10">
-        <v>0.20614893634058604</v>
-      </c>
-      <c r="F10">
-        <v>-0.12778836151389564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.34115781126090405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>-1.6401676929696209E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.47979800553395602</v>
-      </c>
-      <c r="E11">
-        <v>-0.36106474407458361</v>
-      </c>
-      <c r="F11">
-        <v>-0.3813428104077955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.2770274434716584E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12">
-        <v>0.22309029638361949</v>
-      </c>
-      <c r="D12">
-        <v>0.93841912859167231</v>
-      </c>
-      <c r="E12">
-        <v>0.99097869705521602</v>
-      </c>
-      <c r="F12">
-        <v>0.90038700151228346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-9.8330546116454698E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13">
-        <v>-0.24649934207109048</v>
-      </c>
-      <c r="D13">
-        <v>0.95061637550426825</v>
-      </c>
-      <c r="E13">
-        <v>0.99591499731634292</v>
-      </c>
-      <c r="F13">
-        <v>0.94207628512561281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.2043050889634594E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>1000</v>
-      </c>
-      <c r="C14">
-        <v>0.484107837992371</v>
-      </c>
-      <c r="D14">
-        <v>0.48814941295340414</v>
-      </c>
-      <c r="E14">
-        <v>0.16343901999639704</v>
-      </c>
-      <c r="F14">
-        <v>0.14992794091154757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.15193101331917225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>1000</v>
-      </c>
-      <c r="C15">
-        <v>0.68917206171225853</v>
-      </c>
-      <c r="D15">
-        <v>-0.34222042349845039</v>
-      </c>
-      <c r="E15">
-        <v>0.96748013227833884</v>
-      </c>
-      <c r="F15">
-        <v>0.74107034645151282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.1237564876008812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>1000</v>
-      </c>
-      <c r="C16">
-        <v>-0.57710019361758436</v>
-      </c>
-      <c r="D16">
-        <v>0.25746542045660326</v>
-      </c>
-      <c r="E16">
-        <v>-0.21141229402014186</v>
-      </c>
-      <c r="F16">
-        <v>-0.18008664038667804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.3684050503272475E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>1000</v>
-      </c>
-      <c r="C17">
-        <v>0.56700766760743437</v>
-      </c>
-      <c r="D17">
-        <v>-0.49068101428185634</v>
-      </c>
-      <c r="E17">
-        <v>0.95561625128030059</v>
-      </c>
-      <c r="F17">
-        <v>0.7413993292572405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-3.1181950417587014E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>1000</v>
-      </c>
-      <c r="C18">
-        <v>6.9009298484219939E-2</v>
-      </c>
-      <c r="D18">
-        <v>0.19619185365673286</v>
-      </c>
-      <c r="E18">
-        <v>-0.31787174419512443</v>
-      </c>
-      <c r="F18">
-        <v>-0.34115781126090405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-0.14083345647997644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>1000</v>
-      </c>
-      <c r="C19">
-        <v>0.47624099633073486</v>
-      </c>
-      <c r="D19">
-        <v>0.3264593853878614</v>
-      </c>
-      <c r="E19">
-        <v>-2.7208441363669497E-2</v>
-      </c>
-      <c r="F19">
-        <v>3.2770274434716584E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.9790202551727941E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>1000</v>
-      </c>
-      <c r="C20">
-        <v>0.8529746520772632</v>
-      </c>
-      <c r="D20">
-        <v>0.37543770262107973</v>
-      </c>
-      <c r="E20">
-        <v>-7.7465454261565966E-2</v>
-      </c>
-      <c r="F20">
-        <v>-9.8330546116454698E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>1000</v>
-      </c>
-      <c r="C21">
-        <v>0.77295899322775041</v>
-      </c>
-      <c r="D21">
-        <v>0.27246307257505464</v>
-      </c>
-      <c r="E21">
-        <v>-5.8159583355564095E-3</v>
-      </c>
-      <c r="F21">
-        <v>4.2043050889634594E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>1000</v>
-      </c>
-      <c r="C22">
-        <v>0.5636228518899572</v>
-      </c>
-      <c r="D22">
-        <v>-0.20128842642678973</v>
-      </c>
-      <c r="E22">
-        <v>0.90489572692487497</v>
-      </c>
-      <c r="F22">
-        <v>0.74030204131100996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>1000</v>
-      </c>
-      <c r="C23">
-        <v>0.48770651596931552</v>
-      </c>
-      <c r="D23">
-        <v>-0.23898190034620931</v>
-      </c>
-      <c r="E23">
-        <v>0.82605213339158234</v>
-      </c>
-      <c r="F23">
-        <v>0.23624440404552871</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>1000</v>
-      </c>
-      <c r="C24">
-        <v>0.50654682549301389</v>
-      </c>
-      <c r="D24">
-        <v>-6.206823415343591E-2</v>
-      </c>
-      <c r="E24">
-        <v>0.79726050522014669</v>
-      </c>
-      <c r="F24">
-        <v>0.68864380075142451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>1000</v>
-      </c>
-      <c r="C25">
-        <v>-0.10227031171856737</v>
-      </c>
-      <c r="D25">
-        <v>0.27354199083403496</v>
-      </c>
-      <c r="E25">
-        <v>5.9533941048111438E-2</v>
-      </c>
-      <c r="F25">
-        <v>0.15193101331917225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>1000</v>
-      </c>
-      <c r="C26">
-        <v>-0.54360227872813682</v>
-      </c>
-      <c r="D26">
-        <v>0.10712609282403346</v>
-      </c>
-      <c r="E26">
-        <v>3.3948888639963086E-2</v>
-      </c>
-      <c r="F26">
-        <v>0.1237564876008812</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>1000</v>
-      </c>
-      <c r="C27">
-        <v>-0.42967253951235612</v>
-      </c>
-      <c r="D27">
-        <v>0.31082075818917965</v>
-      </c>
-      <c r="E27">
-        <v>1.3053879758683383E-2</v>
-      </c>
-      <c r="F27">
-        <v>8.3684050503272475E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>1000</v>
-      </c>
-      <c r="C28">
-        <v>-0.15566301631611973</v>
-      </c>
-      <c r="D28">
-        <v>0.36018975702264516</v>
-      </c>
-      <c r="E28">
-        <v>-5.9708622267616841E-2</v>
-      </c>
-      <c r="F28">
-        <v>-3.1181950417587014E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>1000</v>
-      </c>
-      <c r="C29">
-        <v>0.39243091473326391</v>
-      </c>
-      <c r="D29">
-        <v>0.31455445544554467</v>
-      </c>
-      <c r="E29">
-        <v>-0.20111127530663533</v>
-      </c>
-      <c r="F29">
-        <v>-0.14083345647997644</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>1000</v>
-      </c>
-      <c r="C30">
-        <v>-0.49992585079986557</v>
-      </c>
-      <c r="D30">
-        <v>0.32892485650388037</v>
-      </c>
-      <c r="E30">
-        <v>-9.5159798990976808E-3</v>
-      </c>
-      <c r="F30">
-        <v>8.9790202551727941E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>1000</v>
-      </c>
-      <c r="C31">
-        <v>4.6247259106818386E-2</v>
-      </c>
-      <c r="D31">
-        <v>0.44392708751840393</v>
-      </c>
-      <c r="E31">
-        <v>0.3886721923241136</v>
-      </c>
-      <c r="F31">
         <v>0.2120358743716885</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2403,617 +2050,179 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4">
-        <v>2.7879405548244508E-5</v>
-      </c>
-      <c r="D4">
-        <v>1.2622465264956645E-31</v>
-      </c>
-      <c r="E4">
-        <v>2.2429082687718738E-56</v>
-      </c>
-      <c r="F4">
-        <v>7.5134242201967761E-58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.2117089991668648E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>8.102365700728555E-14</v>
-      </c>
-      <c r="D5">
-        <v>9.2788040525397267E-14</v>
-      </c>
-      <c r="E5">
-        <v>9.0003178726219936E-111</v>
-      </c>
-      <c r="F5">
-        <v>3.3035283264505332E-45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.5697597034602776E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <v>9.6567874460656763E-11</v>
-      </c>
-      <c r="D6">
-        <v>1.3702955368550967E-46</v>
-      </c>
-      <c r="E6">
-        <v>9.4171084333301727E-67</v>
-      </c>
-      <c r="F6">
-        <v>3.2308295975567433E-34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.9927439632569782E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7">
-        <v>7.6475718782666497E-7</v>
-      </c>
-      <c r="D7">
-        <v>7.9367847751712057E-74</v>
-      </c>
-      <c r="E7">
-        <v>2.8836552059779256E-94</v>
-      </c>
-      <c r="F7">
-        <v>8.5029240961707895E-64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.1522218465680654E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <v>0.98802577134926972</v>
-      </c>
-      <c r="D8">
-        <v>3.9826355829304148E-10</v>
-      </c>
-      <c r="E8">
-        <v>3.0313998283996387E-9</v>
-      </c>
-      <c r="F8">
-        <v>3.2117089991668648E-8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.2789914558335002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>6.046788130234311E-2</v>
-      </c>
-      <c r="D9">
-        <v>9.6892994363759533E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.54919318004020856</v>
-      </c>
-      <c r="F9">
-        <v>1.5697597034602776E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9.7706723436037351E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>1000</v>
-      </c>
-      <c r="C10">
-        <v>5.5596071963479152E-4</v>
-      </c>
-      <c r="D10">
-        <v>1.5827188276220478E-16</v>
-      </c>
-      <c r="E10">
-        <v>3.2460125275861613E-3</v>
-      </c>
-      <c r="F10">
-        <v>6.9927439632569782E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.1278519028863156E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>0.81678612554989571</v>
-      </c>
-      <c r="D11">
-        <v>5.0159402053691609E-13</v>
-      </c>
-      <c r="E11">
-        <v>1.2987816152354309E-7</v>
-      </c>
-      <c r="F11">
-        <v>2.1522218465680654E-8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.65011009101348938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12">
-        <v>9.6194795456657661E-4</v>
-      </c>
-      <c r="D12">
-        <v>9.7985806169779354E-101</v>
-      </c>
-      <c r="E12">
-        <v>8.9963001245421674E-189</v>
-      </c>
-      <c r="F12">
-        <v>2.7367885792245288E-79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.1725540135004503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13">
-        <v>2.0091289695355364E-4</v>
-      </c>
-      <c r="D13">
-        <v>2.8572512793600807E-114</v>
-      </c>
-      <c r="E13">
-        <v>8.5795438461292586E-233</v>
-      </c>
-      <c r="F13">
-        <v>8.0163662951983227E-107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.56568629472271559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>1000</v>
-      </c>
-      <c r="C14">
-        <v>3.8399732409140895E-12</v>
-      </c>
-      <c r="D14">
-        <v>2.3913116320305561E-12</v>
-      </c>
-      <c r="E14">
-        <v>2.7056692038745465E-2</v>
-      </c>
-      <c r="F14">
-        <v>4.2789914558335002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.261891306901981E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>1000</v>
-      </c>
-      <c r="C15">
-        <v>9.3374435018287993E-33</v>
-      </c>
-      <c r="D15">
-        <v>1.5986220986773964E-7</v>
-      </c>
-      <c r="E15">
-        <v>6.5014612386999478E-134</v>
-      </c>
-      <c r="F15">
-        <v>4.2130817420103214E-40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.4922581549933615E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B16">
-        <v>1000</v>
-      </c>
-      <c r="C16">
-        <v>1.3430235392135016E-19</v>
-      </c>
-      <c r="D16">
-        <v>1.9390433333154548E-4</v>
-      </c>
-      <c r="E16">
-        <v>2.3429182043964315E-3</v>
-      </c>
-      <c r="F16">
-        <v>9.7706723436037351E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.22946254906177188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>1000</v>
-      </c>
-      <c r="C17">
-        <v>1.4060481946919042E-18</v>
-      </c>
-      <c r="D17">
-        <v>1.2331204254416913E-13</v>
-      </c>
-      <c r="E17">
-        <v>4.1798084817978327E-108</v>
-      </c>
-      <c r="F17">
-        <v>1.705642117793521E-36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.65875091629709792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>1000</v>
-      </c>
-      <c r="C18">
-        <v>0.33901311072545526</v>
-      </c>
-      <c r="D18">
-        <v>6.112710473313551E-3</v>
-      </c>
-      <c r="E18">
-        <v>6.2862017017029046E-6</v>
-      </c>
-      <c r="F18">
-        <v>1.1278519028863156E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.6134992073019916E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>1000</v>
-      </c>
-      <c r="C19">
-        <v>2.2402315692490096E-12</v>
-      </c>
-      <c r="D19">
-        <v>3.3911638275979214E-6</v>
-      </c>
-      <c r="E19">
-        <v>0.70647803267922493</v>
-      </c>
-      <c r="F19">
-        <v>0.65011009101348938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.22803869721896586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>1000</v>
-      </c>
-      <c r="C20">
-        <v>4.1027607323007204E-56</v>
-      </c>
-      <c r="D20">
-        <v>6.88763848656026E-8</v>
-      </c>
-      <c r="E20">
-        <v>0.28299739001804558</v>
-      </c>
-      <c r="F20">
-        <v>0.1725540135004503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>1000</v>
-      </c>
-      <c r="C21">
-        <v>8.4106093717398989E-39</v>
-      </c>
-      <c r="D21">
-        <v>1.4889127463177436E-4</v>
-      </c>
-      <c r="E21">
-        <v>0.93669342997100058</v>
-      </c>
-      <c r="F21">
-        <v>0.56568629472271559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>1000</v>
-      </c>
-      <c r="C22">
-        <v>4.2708489688968807E-20</v>
-      </c>
-      <c r="D22">
-        <v>2.5281172292137477E-3</v>
-      </c>
-      <c r="E22">
-        <v>6.1531298440385301E-84</v>
-      </c>
-      <c r="F22">
-        <v>5.5724590813517896E-40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>1000</v>
-      </c>
-      <c r="C23">
-        <v>2.2895172898201555E-14</v>
-      </c>
-      <c r="D23">
-        <v>3.8276077933330389E-4</v>
-      </c>
-      <c r="E23">
-        <v>1.8836562369559042E-55</v>
-      </c>
-      <c r="F23">
-        <v>4.4842621415045652E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>1000</v>
-      </c>
-      <c r="C24">
-        <v>6.1648104478583227E-16</v>
-      </c>
-      <c r="D24">
-        <v>0.35623795345372378</v>
-      </c>
-      <c r="E24">
-        <v>2.3864407469395627E-50</v>
-      </c>
-      <c r="F24">
-        <v>1.0890177010002983E-32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>1000</v>
-      </c>
-      <c r="C25">
-        <v>0.15165181584923537</v>
-      </c>
-      <c r="D25">
-        <v>9.6455541688978392E-5</v>
-      </c>
-      <c r="E25">
-        <v>0.40475897381809001</v>
-      </c>
-      <c r="F25">
-        <v>3.261891306901981E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>1000</v>
-      </c>
-      <c r="C26">
-        <v>2.1670980898709844E-17</v>
-      </c>
-      <c r="D26">
-        <v>0.12353131397220463</v>
-      </c>
-      <c r="E26">
-        <v>0.62639467393880055</v>
-      </c>
-      <c r="F26">
-        <v>7.4922581549933615E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>1000</v>
-      </c>
-      <c r="C27">
-        <v>9.3913725592655535E-11</v>
-      </c>
-      <c r="D27">
-        <v>4.89132227117131E-6</v>
-      </c>
-      <c r="E27">
-        <v>0.85155152582256721</v>
-      </c>
-      <c r="F27">
-        <v>0.22946254906177188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>1000</v>
-      </c>
-      <c r="C28">
-        <v>2.6575498150732738E-2</v>
-      </c>
-      <c r="D28">
-        <v>1.3026630476394905E-7</v>
-      </c>
-      <c r="E28">
-        <v>0.39743063120048339</v>
-      </c>
-      <c r="F28">
-        <v>0.65875091629709792</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>1000</v>
-      </c>
-      <c r="C29">
-        <v>8.3232890888407535E-9</v>
-      </c>
-      <c r="D29">
-        <v>5.422556801940718E-6</v>
-      </c>
-      <c r="E29">
-        <v>4.1995543909926865E-3</v>
-      </c>
-      <c r="F29">
-        <v>4.6134992073019916E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>1000</v>
-      </c>
-      <c r="C30">
-        <v>6.7186433744493797E-13</v>
-      </c>
-      <c r="D30">
-        <v>5.7970093910110195E-6</v>
-      </c>
-      <c r="E30">
-        <v>0.89854787096374877</v>
-      </c>
-      <c r="F30">
-        <v>0.22803869721896586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>1000</v>
-      </c>
-      <c r="C31">
-        <v>0.50301871912447527</v>
-      </c>
-      <c r="D31">
-        <v>1.1915289718966041E-11</v>
-      </c>
-      <c r="E31">
-        <v>4.6951393270495924E-9</v>
-      </c>
-      <c r="F31">
         <v>1.9065770435256319E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3022,602 +2231,161 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>217</v>
-      </c>
-      <c r="D4">
-        <v>217</v>
-      </c>
-      <c r="E4">
-        <v>217</v>
-      </c>
-      <c r="F4">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
         <v>203</v>
       </c>
-      <c r="D5">
-        <v>203</v>
-      </c>
-      <c r="E5">
-        <v>203</v>
-      </c>
-      <c r="F5">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>209</v>
-      </c>
-      <c r="D6">
-        <v>209</v>
-      </c>
-      <c r="E6">
-        <v>209</v>
-      </c>
-      <c r="F6">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>228</v>
-      </c>
-      <c r="D7">
-        <v>228</v>
-      </c>
-      <c r="E7">
-        <v>228</v>
-      </c>
-      <c r="F7">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>213</v>
-      </c>
-      <c r="D8">
-        <v>213</v>
-      </c>
-      <c r="E8">
-        <v>213</v>
-      </c>
-      <c r="F8">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>212</v>
-      </c>
-      <c r="D9">
-        <v>212</v>
-      </c>
-      <c r="E9">
-        <v>212</v>
-      </c>
-      <c r="F9">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>202</v>
-      </c>
-      <c r="D10">
-        <v>202</v>
-      </c>
-      <c r="E10">
-        <v>202</v>
-      </c>
-      <c r="F10">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>202</v>
-      </c>
-      <c r="D11">
-        <v>202</v>
-      </c>
-      <c r="E11">
-        <v>202</v>
-      </c>
-      <c r="F11">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>216</v>
-      </c>
-      <c r="D12">
-        <v>216</v>
-      </c>
-      <c r="E12">
-        <v>216</v>
-      </c>
-      <c r="F12">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>223</v>
-      </c>
-      <c r="D13">
-        <v>223</v>
-      </c>
-      <c r="E13">
-        <v>223</v>
-      </c>
-      <c r="F13">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>183</v>
-      </c>
-      <c r="D14">
-        <v>183</v>
-      </c>
-      <c r="E14">
-        <v>183</v>
-      </c>
-      <c r="F14">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>223</v>
-      </c>
-      <c r="D15">
-        <v>223</v>
-      </c>
-      <c r="E15">
-        <v>223</v>
-      </c>
-      <c r="F15">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>205</v>
-      </c>
-      <c r="D16">
-        <v>205</v>
-      </c>
-      <c r="E16">
-        <v>205</v>
-      </c>
-      <c r="F16">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>202</v>
-      </c>
-      <c r="D17">
-        <v>202</v>
-      </c>
-      <c r="E17">
-        <v>202</v>
-      </c>
-      <c r="F17">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>194</v>
-      </c>
-      <c r="D18">
-        <v>194</v>
-      </c>
-      <c r="E18">
-        <v>194</v>
-      </c>
-      <c r="F18">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>194</v>
-      </c>
-      <c r="D19">
-        <v>194</v>
-      </c>
-      <c r="E19">
-        <v>194</v>
-      </c>
-      <c r="F19">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>194</v>
-      </c>
-      <c r="D20">
-        <v>194</v>
-      </c>
-      <c r="E20">
-        <v>194</v>
-      </c>
-      <c r="F20">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>189</v>
-      </c>
-      <c r="D21">
-        <v>189</v>
-      </c>
-      <c r="E21">
-        <v>189</v>
-      </c>
-      <c r="F21">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>223</v>
-      </c>
-      <c r="D22">
-        <v>223</v>
-      </c>
-      <c r="E22">
-        <v>223</v>
-      </c>
-      <c r="F22">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>217</v>
-      </c>
-      <c r="D23">
-        <v>217</v>
-      </c>
-      <c r="E23">
-        <v>217</v>
-      </c>
-      <c r="F23">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>223</v>
-      </c>
-      <c r="D24">
-        <v>223</v>
-      </c>
-      <c r="E24">
-        <v>223</v>
-      </c>
-      <c r="F24">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>198</v>
-      </c>
-      <c r="D25">
-        <v>198</v>
-      </c>
-      <c r="E25">
-        <v>198</v>
-      </c>
-      <c r="F25">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>208</v>
-      </c>
-      <c r="D26">
-        <v>208</v>
-      </c>
-      <c r="E26">
-        <v>208</v>
-      </c>
-      <c r="F26">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>208</v>
-      </c>
-      <c r="D27">
-        <v>208</v>
-      </c>
-      <c r="E27">
-        <v>208</v>
-      </c>
-      <c r="F27">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>203</v>
-      </c>
-      <c r="D28">
-        <v>203</v>
-      </c>
-      <c r="E28">
-        <v>203</v>
-      </c>
-      <c r="F28">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>201</v>
-      </c>
-      <c r="D29">
-        <v>201</v>
-      </c>
-      <c r="E29">
-        <v>201</v>
-      </c>
-      <c r="F29">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>182</v>
-      </c>
-      <c r="D30">
-        <v>182</v>
-      </c>
-      <c r="E30">
-        <v>182</v>
-      </c>
-      <c r="F30">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>212</v>
-      </c>
-      <c r="D31">
-        <v>212</v>
-      </c>
-      <c r="E31">
-        <v>212</v>
-      </c>
-      <c r="F31">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>